--- a/Documentation/Note d'équipe/Eval.xlsx
+++ b/Documentation/Note d'équipe/Eval.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Session_8\6DY\GrandProphete\GrandsProphetes\Documentation\Note d'équipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cegep\Session 6\Projet\GrandsProphetes\Documentation\Note d'équipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DE8447A-7CE2-4C40-B9D4-A8C215D295A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CFD235-E17E-4500-B828-A7D9EE04F111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Poid bloc</t>
   </si>
@@ -198,12 +198,6 @@
     <t>Utilisation de rencontres Scrum, méthodologie Agile et Trello</t>
   </si>
   <si>
-    <t>Utilisation de fichier Json</t>
-  </si>
-  <si>
-    <t>Sauvegarde des paramètres de base dans les fichiers Json</t>
-  </si>
-  <si>
     <t>Documentation programmeur faite dans l'optique de la prise en charge du projet d'une équipe différente dans le futur</t>
   </si>
   <si>
@@ -226,6 +220,21 @@
   </si>
   <si>
     <t>Rédaction de tests unitaires dans la branche GPTEST et création de Plan_de_test.md</t>
+  </si>
+  <si>
+    <t>Utilisation de GitHub. Chacun avait sa branche et travaillait localement pour ensuite pousser ses changements.</t>
+  </si>
+  <si>
+    <t>Utilisation de fichier Json pour sauvegarder les générations. Nous avons utilisé un modèle simple pour les objets à sauvegarder pour réduire la taille des fichiers.</t>
+  </si>
+  <si>
+    <t>Sauvegarde des paramètres de base dans les fichiers Json.</t>
+  </si>
+  <si>
+    <t>Certaines tâches ont pris plus de temps ou de personnel pour compléter. Nous aurions pu mieux prévoir les resources humaines pour accélérer la complétion des tâches.</t>
+  </si>
+  <si>
+    <t>Nous avons appris rapidement Python, et certaines règles de nomenclatures n'ont peut-être pas été respectées. Nous aurions</t>
   </si>
 </sst>
 </file>
@@ -837,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +999,7 @@
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="27" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1003,11 +1012,11 @@
       <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="C13" s="26"/>
       <c r="D13" s="13">
@@ -1016,7 +1025,9 @@
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="27" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
@@ -1105,7 +1116,7 @@
       <c r="E20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="27" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1118,7 +1129,7 @@
       <c r="E21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="27" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1131,7 +1142,7 @@
       <c r="E22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="27" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1144,11 +1155,11 @@
       <c r="E23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="33"/>
       <c r="C24" s="26"/>
       <c r="D24" s="13">
@@ -1157,8 +1168,8 @@
       <c r="E24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="24" t="s">
-        <v>54</v>
+      <c r="F24" s="27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1170,8 +1181,8 @@
       <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>55</v>
+      <c r="F25" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1184,7 +1195,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1197,7 +1208,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1210,7 +1221,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1223,7 +1234,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -1248,7 +1259,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1261,7 +1272,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1274,7 +1285,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1287,7 +1298,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1300,7 +1311,9 @@
       <c r="E35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="25"/>
+      <c r="F35" s="25" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
